--- a/QA_Automation/Invessence/TestCases/TCM/TestData_Invessence_TCM_ChangeStrategy.xlsx
+++ b/QA_Automation/Invessence/TestCases/TCM/TestData_Invessence_TCM_ChangeStrategy.xlsx
@@ -58,9 +58,6 @@
     <t>TC002</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Investing amount limits $2000 to ?</t>
   </si>
   <si>
@@ -310,15 +307,9 @@
     <t>04/04/2016</t>
   </si>
   <si>
-    <t>http://demo.invessence.com:8080/login.xhtml</t>
-  </si>
-  <si>
     <t>tcm-logo.jpe</t>
   </si>
   <si>
-    <t>deepali</t>
-  </si>
-  <si>
     <t>radiobtnoption</t>
   </si>
   <si>
@@ -334,10 +325,19 @@
     <t>Moderate</t>
   </si>
   <si>
-    <t>TST3169</t>
-  </si>
-  <si>
     <t>I already know which strategy I would like assigned to my portfolio. I would like to skip the risk tolerance questionnaire process and move forward with assigning a new strategy to my portfolio.</t>
+  </si>
+  <si>
+    <t>TST2801</t>
+  </si>
+  <si>
+    <t>TST2803</t>
+  </si>
+  <si>
+    <t>http://uattcm.invessence.com:8080//login.xhtml?rep=100</t>
+  </si>
+  <si>
+    <t>tcmintrepqa.user</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -399,6 +399,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -716,13 +719,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AP4" sqref="A4:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="6" width="13.85546875" customWidth="1"/>
@@ -761,148 +764,148 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AT1" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="AU1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AV1" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="AW1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AX1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="BA1" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="BB1" t="s">
         <v>8</v>
@@ -916,13 +919,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>98</v>
+      <c r="D2" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -931,146 +934,146 @@
         <v>2500</v>
       </c>
       <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AB2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AE2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AL2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AM2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AN2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AO2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AR2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AR2" s="4" t="s">
+      <c r="AS2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AS2" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="AT2" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AU2" s="4"/>
       <c r="AV2" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AX2" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AY2" s="7">
         <v>20</v>
       </c>
       <c r="AZ2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA2" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="BA2" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="BB2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BC2" s="2"/>
     </row>
@@ -1079,13 +1082,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>98</v>
+      <c r="D3" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -1094,143 +1097,143 @@
         <v>2500</v>
       </c>
       <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="K3" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AB3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AE3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AR3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AS3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AS3" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="AT3" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AU3" s="4"/>
       <c r="AV3" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AX3" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AY3" s="7">
         <v>20</v>
       </c>
       <c r="AZ3" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="BA3" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="s">
         <v>9</v>
@@ -1239,10 +1242,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="S2" r:id="rId2" display="d@gmail.com"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="S3" r:id="rId4" display="d@gmail.com"/>
+    <hyperlink ref="S2" r:id="rId1" display="d@gmail.com"/>
+    <hyperlink ref="S3" r:id="rId2" display="d@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -1264,7 +1267,7 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
